--- a/excel/src/main/resources/excel/exportTestTemplate.xlsx
+++ b/excel/src/main/resources/excel/exportTestTemplate.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideawordspace\mystudy\excel\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0DAE48-985A-4656-8BC4-8D4244DCD08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7294C1B5-0278-452E-BB07-A0EFB3BDEFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,68 +25,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>dongshuaihu</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{3A7144FF-3B71-478B-A9CA-B7F4D1686D73}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>dongshuaihu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="E3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{3DCF07EC-2B73-4F5A-AEAC-628370ED4934}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>dongshuaihu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="users" var="user" lastCell="E3")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>dongshuaihu</author>
@@ -150,65 +87,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${user.id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${user.username}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${user.email}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${user.grade}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${user.passwd}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -583,81 +464,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72630950-6768-401E-8FAF-86822ABA0895}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -673,35 +479,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/excel/src/main/resources/excel/exportTestTemplate.xlsx
+++ b/excel/src/main/resources/excel/exportTestTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideawordspace\mystudy\excel\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7294C1B5-0278-452E-BB07-A0EFB3BDEFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658BE8FF-6B02-4408-AA44-6988B75A1DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
